--- a/Data/Pradera Concepción/DatosMcdonalds.xlsx
+++ b/Data/Pradera Concepción/DatosMcdonalds.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D0F07-BF4C-E34A-9695-3E94C2A25DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="21420" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jueves" sheetId="2" r:id="rId1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy/mmm/dd\ hh:mm:ss"/>
@@ -114,9 +115,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -124,10 +122,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -199,61 +200,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Registros3" displayName="Registros3" ref="A4:D31" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A4:D31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Registros3" displayName="Registros3" ref="A4:D31" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A4:D31" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Ingreso" dataDxfId="13"/>
-    <tableColumn id="3" name="Llegada" dataDxfId="12"/>
-    <tableColumn id="4" name="Inicio" dataDxfId="11"/>
-    <tableColumn id="5" name="Salida" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ingreso" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Llegada" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Inicio" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Salida" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Registros33" displayName="Registros33" ref="A4:D38" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A4:D38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Registros33" displayName="Registros33" ref="A4:D38" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A4:D38" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Ingreso" dataDxfId="8"/>
-    <tableColumn id="3" name="Llegada" dataDxfId="7"/>
-    <tableColumn id="4" name="Inicio" dataDxfId="6"/>
-    <tableColumn id="5" name="Salida" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ingreso" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Llegada" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Inicio" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Salida" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Registros35" displayName="Registros35" ref="A4:D63" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A4:D63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Registros35" displayName="Registros35" ref="A4:D63" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A4:D63" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Ingreso" dataDxfId="3"/>
-    <tableColumn id="3" name="Llegada" dataDxfId="2"/>
-    <tableColumn id="4" name="Inicio" dataDxfId="1"/>
-    <tableColumn id="5" name="Salida" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ingreso" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Llegada" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Inicio" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Salida" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -328,6 +329,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,6 +381,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,44 +573,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="1"/>
+    <col min="4" max="4" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="10"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -589,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -604,7 +639,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -619,7 +654,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -634,7 +669,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -649,12 +684,12 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>43733.527430555558</v>
+        <v>43734.527430555558</v>
       </c>
       <c r="C9" s="4">
         <v>43734.52789351852</v>
@@ -664,7 +699,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -679,7 +714,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -694,7 +729,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -709,7 +744,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -724,7 +759,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -739,7 +774,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -754,7 +789,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -769,7 +804,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -784,7 +819,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -799,7 +834,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -814,12 +849,12 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>43733.543599537035</v>
+        <v>43734.543599537035</v>
       </c>
       <c r="C20" s="4">
         <v>43734.544502314813</v>
@@ -829,7 +864,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -840,11 +875,11 @@
         <v>43734.546793981484</v>
       </c>
       <c r="D21" s="4">
-        <v>43733.548055555555</v>
+        <v>43734.548055555555</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -859,7 +894,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -874,7 +909,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -889,7 +924,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -904,7 +939,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -919,7 +954,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -934,7 +969,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -949,7 +984,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -964,7 +999,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -979,7 +1014,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -1009,44 +1044,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="1"/>
+    <col min="4" max="4" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="10"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1075,7 +1110,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1090,7 +1125,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1105,7 +1140,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1120,7 +1155,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1135,7 +1170,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1150,7 +1185,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -1165,7 +1200,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1180,7 +1215,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -1195,7 +1230,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -1210,7 +1245,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -1225,7 +1260,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -1240,7 +1275,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -1270,7 +1305,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -1285,7 +1320,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -1300,7 +1335,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -1315,7 +1350,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -1330,7 +1365,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -1345,7 +1380,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -1360,7 +1395,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -1375,7 +1410,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -1390,7 +1425,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -1405,7 +1440,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -1420,7 +1455,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -1435,7 +1470,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -1450,7 +1485,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -1465,7 +1500,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -1480,7 +1515,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -1495,7 +1530,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -1510,7 +1545,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>31</v>
       </c>
@@ -1525,7 +1560,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>32</v>
       </c>
@@ -1540,7 +1575,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>33</v>
       </c>
@@ -1555,7 +1590,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>34</v>
       </c>
@@ -1585,49 +1620,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" style="1"/>
-    <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1"/>
-    <col min="10" max="10" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="1"/>
+    <col min="4" max="4" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1"/>
+    <col min="10" max="10" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="10"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1640,8 +1675,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="4">
@@ -1655,8 +1690,8 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="4">
@@ -1669,10 +1704,10 @@
         <v>43725.528275462966</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="4">
@@ -1686,8 +1721,8 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="4">
@@ -1701,8 +1736,8 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="4">
@@ -1716,8 +1751,8 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="4">
@@ -1731,8 +1766,8 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="4">
@@ -1746,8 +1781,8 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="4">
@@ -1761,8 +1796,8 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
       <c r="B13" s="4">
@@ -1776,8 +1811,8 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
       <c r="B14" s="4">
@@ -1791,8 +1826,8 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
       <c r="B15" s="4">
@@ -1806,8 +1841,8 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" s="4">
@@ -1821,8 +1856,8 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
       <c r="B17" s="4">
@@ -1836,8 +1871,8 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" s="4">
@@ -1851,8 +1886,8 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>15</v>
       </c>
       <c r="B19" s="4">
@@ -1866,8 +1901,8 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
       <c r="B20" s="4">
@@ -1881,8 +1916,8 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
       <c r="B21" s="4">
@@ -1896,8 +1931,8 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>18</v>
       </c>
       <c r="B22" s="4">
@@ -1911,8 +1946,8 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>19</v>
       </c>
       <c r="B23" s="4">
@@ -1926,8 +1961,8 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>20</v>
       </c>
       <c r="B24" s="4">
@@ -1941,8 +1976,8 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>21</v>
       </c>
       <c r="B25" s="4">
@@ -1956,8 +1991,8 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>22</v>
       </c>
       <c r="B26" s="4">
@@ -1971,8 +2006,8 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>23</v>
       </c>
       <c r="B27" s="4">
@@ -1986,8 +2021,8 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>24</v>
       </c>
       <c r="B28" s="4">
@@ -2001,8 +2036,8 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>25</v>
       </c>
       <c r="B29" s="4">
@@ -2016,8 +2051,8 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>26</v>
       </c>
       <c r="B30" s="4">
@@ -2031,8 +2066,8 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>27</v>
       </c>
       <c r="B31" s="4">
@@ -2046,8 +2081,8 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>28</v>
       </c>
       <c r="B32" s="4">
@@ -2061,8 +2096,8 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>29</v>
       </c>
       <c r="B33" s="4">
@@ -2076,8 +2111,8 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>30</v>
       </c>
       <c r="B34" s="4">
@@ -2091,8 +2126,8 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>31</v>
       </c>
       <c r="B35" s="4">
@@ -2106,8 +2141,8 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>32</v>
       </c>
       <c r="B36" s="4">
@@ -2121,8 +2156,8 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>33</v>
       </c>
       <c r="B37" s="4">
@@ -2136,8 +2171,8 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>34</v>
       </c>
       <c r="B38" s="4">
@@ -2151,8 +2186,8 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>35</v>
       </c>
       <c r="B39" s="4">
@@ -2166,8 +2201,8 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>36</v>
       </c>
       <c r="B40" s="4">
@@ -2181,8 +2216,8 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>37</v>
       </c>
       <c r="B41" s="4">
@@ -2196,8 +2231,8 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>38</v>
       </c>
       <c r="B42" s="4">
@@ -2211,8 +2246,8 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>39</v>
       </c>
       <c r="B43" s="4">
@@ -2226,8 +2261,8 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
         <v>40</v>
       </c>
       <c r="B44" s="4">
@@ -2241,8 +2276,8 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
         <v>41</v>
       </c>
       <c r="B45" s="4">
@@ -2256,8 +2291,8 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
         <v>42</v>
       </c>
       <c r="B46" s="4">
@@ -2271,8 +2306,8 @@
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>43</v>
       </c>
       <c r="B47" s="4">
@@ -2286,8 +2321,8 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
         <v>44</v>
       </c>
       <c r="B48" s="4">
@@ -2301,8 +2336,8 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
         <v>45</v>
       </c>
       <c r="B49" s="4">
@@ -2316,8 +2351,8 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>46</v>
       </c>
       <c r="B50" s="4">
@@ -2331,8 +2366,8 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
         <v>47</v>
       </c>
       <c r="B51" s="4">
@@ -2346,8 +2381,8 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>48</v>
       </c>
       <c r="B52" s="4">
@@ -2361,8 +2396,8 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
         <v>49</v>
       </c>
       <c r="B53" s="4">
@@ -2376,8 +2411,8 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
         <v>50</v>
       </c>
       <c r="B54" s="4">
@@ -2391,8 +2426,8 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
         <v>51</v>
       </c>
       <c r="B55" s="4">
@@ -2406,8 +2441,8 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
         <v>52</v>
       </c>
       <c r="B56" s="4">
@@ -2421,8 +2456,8 @@
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
         <v>53</v>
       </c>
       <c r="B57" s="4">
@@ -2436,8 +2471,8 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>54</v>
       </c>
       <c r="B58" s="4">
@@ -2451,8 +2486,8 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>55</v>
       </c>
       <c r="B59" s="4">
@@ -2466,8 +2501,8 @@
       </c>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>56</v>
       </c>
       <c r="B60" s="4">
@@ -2481,8 +2516,8 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
         <v>57</v>
       </c>
       <c r="B61" s="4">
@@ -2496,8 +2531,8 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
         <v>58</v>
       </c>
       <c r="B62" s="4">
@@ -2511,8 +2546,8 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
         <v>59</v>
       </c>
       <c r="B63" s="4">

--- a/Data/Pradera Concepción/DatosMcdonalds.xlsx
+++ b/Data/Pradera Concepción/DatosMcdonalds.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11103"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D0F07-BF4C-E34A-9695-3E94C2A25DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8479ED82-0868-1748-9BDA-D7C4909689F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21420" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="21420" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jueves" sheetId="2" r:id="rId1"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1623,9 +1623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1680,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>43725.525659722225</v>
+        <v>43723.525659722225</v>
       </c>
       <c r="C5" s="4">
-        <v>43725.525659722225</v>
+        <v>43723.525659722225</v>
       </c>
       <c r="D5" s="4">
-        <v>43725.528298611112</v>
+        <v>43723.528298611112</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1695,13 +1695,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>43725.525729166664</v>
+        <v>43723.525729166664</v>
       </c>
       <c r="C6" s="4">
-        <v>43725.525729166664</v>
+        <v>43723.525729166664</v>
       </c>
       <c r="D6" s="4">
-        <v>43725.528275462966</v>
+        <v>43723.528275462966</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="9"/>
@@ -1711,13 +1711,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>43725.525810185187</v>
+        <v>43723.525810185187</v>
       </c>
       <c r="C7" s="4">
-        <v>43725.52648148148</v>
+        <v>43723.52648148148</v>
       </c>
       <c r="D7" s="4">
-        <v>43725.529293981483</v>
+        <v>43723.529293981483</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1726,13 +1726,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>43725.525833333333</v>
+        <v>43723.525833333333</v>
       </c>
       <c r="C8" s="4">
-        <v>43725.526620370372</v>
+        <v>43723.526620370372</v>
       </c>
       <c r="D8" s="4">
-        <v>43725.528252314813</v>
+        <v>43723.528252314813</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1741,13 +1741,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>43725.527418981481</v>
+        <v>43723.527418981481</v>
       </c>
       <c r="C9" s="4">
-        <v>43725.527418981481</v>
+        <v>43723.527418981481</v>
       </c>
       <c r="D9" s="4">
-        <v>43725.529143518521</v>
+        <v>43723.529143518521</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1756,13 +1756,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>43725.528194444443</v>
+        <v>43723.528194444443</v>
       </c>
       <c r="C10" s="4">
-        <v>43725.528194444443</v>
+        <v>43723.528194444443</v>
       </c>
       <c r="D10" s="4">
-        <v>43725.529791666668</v>
+        <v>43723.529791666668</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>43725.529062499998</v>
+        <v>43723.529062499998</v>
       </c>
       <c r="C11" s="4">
-        <v>43725.529062499998</v>
+        <v>43723.529062499998</v>
       </c>
       <c r="D11" s="4">
-        <v>43725.533055555556</v>
+        <v>43723.533055555556</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1786,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>43725.529409722221</v>
+        <v>43723.529409722221</v>
       </c>
       <c r="C12" s="4">
-        <v>43725.529409722221</v>
+        <v>43723.529409722221</v>
       </c>
       <c r="D12" s="4">
-        <v>43725.531134259261</v>
+        <v>43723.531134259261</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1801,13 +1801,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>43725.530462962961</v>
+        <v>43723.530462962961</v>
       </c>
       <c r="C13" s="4">
-        <v>43725.530462962961</v>
+        <v>43723.530462962961</v>
       </c>
       <c r="D13" s="4">
-        <v>43725.535231481481</v>
+        <v>43723.535231481481</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1816,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>43725.530856481484</v>
+        <v>43723.530856481484</v>
       </c>
       <c r="C14" s="4">
-        <v>43725.531365740739</v>
+        <v>43723.531365740739</v>
       </c>
       <c r="D14" s="4">
-        <v>43725.533425925925</v>
+        <v>43723.533425925925</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>43725.530949074076</v>
+        <v>43723.530949074076</v>
       </c>
       <c r="C15" s="4">
-        <v>43725.531944444447</v>
+        <v>43723.531944444447</v>
       </c>
       <c r="D15" s="4">
-        <v>43725.534189814818</v>
+        <v>43723.534189814818</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1846,13 +1846,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>43725.530960648146</v>
+        <v>43723.530960648146</v>
       </c>
       <c r="C16" s="4">
-        <v>43725.53197916667</v>
+        <v>43723.53197916667</v>
       </c>
       <c r="D16" s="4">
-        <v>43725.534212962964</v>
+        <v>43723.534212962964</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1861,13 +1861,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="4">
-        <v>43725.531041666669</v>
+        <v>43723.531041666669</v>
       </c>
       <c r="C17" s="4">
-        <v>43725.532013888886</v>
+        <v>43723.532013888886</v>
       </c>
       <c r="D17" s="4">
-        <v>43725.534722222219</v>
+        <v>43723.534722222219</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1876,13 +1876,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>43725.531041666669</v>
+        <v>43723.531041666669</v>
       </c>
       <c r="C18" s="4">
-        <v>43725.532037037039</v>
+        <v>43723.532037037039</v>
       </c>
       <c r="D18" s="4">
-        <v>43725.53497685185</v>
+        <v>43723.53497685185</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1891,13 +1891,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>43725.532349537039</v>
+        <v>43723.532349537039</v>
       </c>
       <c r="C19" s="4">
-        <v>43725.532962962963</v>
+        <v>43723.532962962963</v>
       </c>
       <c r="D19" s="4">
-        <v>43725.535462962966</v>
+        <v>43723.535462962966</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1906,13 +1906,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>43725.532349537039</v>
+        <v>43723.532349537039</v>
       </c>
       <c r="C20" s="4">
-        <v>43725.532986111109</v>
+        <v>43723.532986111109</v>
       </c>
       <c r="D20" s="4">
-        <v>43725.53702546296</v>
+        <v>43723.53702546296</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1921,13 +1921,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="4">
-        <v>43725.532361111109</v>
+        <v>43723.532361111109</v>
       </c>
       <c r="C21" s="4">
-        <v>43725.533020833333</v>
+        <v>43723.533020833333</v>
       </c>
       <c r="D21" s="4">
-        <v>43725.535995370374</v>
+        <v>43723.535995370374</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1936,13 +1936,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>43725.532361111109</v>
+        <v>43723.532361111109</v>
       </c>
       <c r="C22" s="4">
-        <v>43725.53324074074</v>
+        <v>43723.53324074074</v>
       </c>
       <c r="D22" s="4">
-        <v>43725.53665509259</v>
+        <v>43723.53665509259</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1951,13 +1951,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="4">
-        <v>43725.533587962964</v>
+        <v>43723.533587962964</v>
       </c>
       <c r="C23" s="4">
-        <v>43725.534062500003</v>
+        <v>43723.534062500003</v>
       </c>
       <c r="D23" s="4">
-        <v>43725.537048611113</v>
+        <v>43723.537048611113</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1966,13 +1966,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="4">
-        <v>43725.533680555556</v>
+        <v>43723.533680555556</v>
       </c>
       <c r="C24" s="4">
-        <v>43725.534074074072</v>
+        <v>43723.534074074072</v>
       </c>
       <c r="D24" s="4">
-        <v>43725.537569444445</v>
+        <v>43723.537569444445</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1981,13 +1981,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>43725.533680555556</v>
+        <v>43723.533680555556</v>
       </c>
       <c r="C25" s="4">
-        <v>43725.534618055557</v>
+        <v>43723.534618055557</v>
       </c>
       <c r="D25" s="4">
-        <v>43725.537592592591</v>
+        <v>43723.537592592591</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1996,13 +1996,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="4">
-        <v>43725.534259259257</v>
+        <v>43723.534259259257</v>
       </c>
       <c r="C26" s="4">
-        <v>43725.535034722219</v>
+        <v>43723.535034722219</v>
       </c>
       <c r="D26" s="4">
-        <v>43725.538159722222</v>
+        <v>43723.538159722222</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2011,13 +2011,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>43725.534768518519</v>
+        <v>43723.534768518519</v>
       </c>
       <c r="C27" s="4">
-        <v>43725.535856481481</v>
+        <v>43723.535856481481</v>
       </c>
       <c r="D27" s="4">
-        <v>43725.537476851852</v>
+        <v>43723.537476851852</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -2026,13 +2026,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <v>43725.534791666665</v>
+        <v>43723.534791666665</v>
       </c>
       <c r="C28" s="4">
-        <v>43725.535868055558</v>
+        <v>43723.535868055558</v>
       </c>
       <c r="D28" s="4">
-        <v>43725.537499999999</v>
+        <v>43723.537499999999</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -2041,13 +2041,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="4">
-        <v>43725.535543981481</v>
+        <v>43723.535543981481</v>
       </c>
       <c r="C29" s="4">
-        <v>43725.536168981482</v>
+        <v>43723.536168981482</v>
       </c>
       <c r="D29" s="4">
-        <v>43725.540150462963</v>
+        <v>43723.540150462963</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -2056,13 +2056,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="4">
-        <v>43725.535555555558</v>
+        <v>43723.535555555558</v>
       </c>
       <c r="C30" s="4">
-        <v>43725.536770833336</v>
+        <v>43723.536770833336</v>
       </c>
       <c r="D30" s="4">
-        <v>43725.540173611109</v>
+        <v>43723.540173611109</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2071,13 +2071,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="4">
-        <v>43725.536469907405</v>
+        <v>43723.536469907405</v>
       </c>
       <c r="C31" s="4">
-        <v>43725.536944444444</v>
+        <v>43723.536944444444</v>
       </c>
       <c r="D31" s="4">
-        <v>43725.538553240738</v>
+        <v>43723.538553240738</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -2086,13 +2086,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="4">
-        <v>43725.536469907405</v>
+        <v>43723.536469907405</v>
       </c>
       <c r="C32" s="4">
-        <v>43725.537129629629</v>
+        <v>43723.537129629629</v>
       </c>
       <c r="D32" s="4">
-        <v>43725.539560185185</v>
+        <v>43723.539560185185</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -2101,13 +2101,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="4">
-        <v>43725.537349537037</v>
+        <v>43723.537349537037</v>
       </c>
       <c r="C33" s="4">
-        <v>43725.537349537037</v>
+        <v>43723.537349537037</v>
       </c>
       <c r="D33" s="4">
-        <v>43725.540844907409</v>
+        <v>43723.540844907409</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -2116,13 +2116,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="4">
-        <v>43725.538773148146</v>
+        <v>43723.538773148146</v>
       </c>
       <c r="C34" s="4">
-        <v>43725.538773148146</v>
+        <v>43723.538773148146</v>
       </c>
       <c r="D34" s="4">
-        <v>43725.541041666664</v>
+        <v>43723.541041666664</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -2131,13 +2131,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="4">
-        <v>43725.538831018515</v>
+        <v>43723.538831018515</v>
       </c>
       <c r="C35" s="4">
-        <v>43725.540972222225</v>
+        <v>43723.540972222225</v>
       </c>
       <c r="D35" s="4">
-        <v>43725.54105324074</v>
+        <v>43723.54105324074</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -2146,13 +2146,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="4">
-        <v>43725.538842592592</v>
+        <v>43723.538842592592</v>
       </c>
       <c r="C36" s="4">
-        <v>43725.540995370371</v>
+        <v>43723.540995370371</v>
       </c>
       <c r="D36" s="4">
-        <v>43725.541076388887</v>
+        <v>43723.541076388887</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -2161,13 +2161,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="4">
-        <v>43725.539004629631</v>
+        <v>43723.539004629631</v>
       </c>
       <c r="C37" s="4">
-        <v>43725.540300925924</v>
+        <v>43723.540300925924</v>
       </c>
       <c r="D37" s="4">
-        <v>43725.541504629633</v>
+        <v>43723.541504629633</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -2176,13 +2176,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <v>43725.539386574077</v>
+        <v>43723.539386574077</v>
       </c>
       <c r="C38" s="4">
-        <v>43725.540277777778</v>
+        <v>43723.540277777778</v>
       </c>
       <c r="D38" s="4">
-        <v>43725.542442129627</v>
+        <v>43723.542442129627</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -2191,13 +2191,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="4">
-        <v>43725.540543981479</v>
+        <v>43723.540543981479</v>
       </c>
       <c r="C39" s="4">
-        <v>43725.541145833333</v>
+        <v>43723.541145833333</v>
       </c>
       <c r="D39" s="4">
-        <v>43725.543067129627</v>
+        <v>43723.543067129627</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -2206,13 +2206,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <v>43725.540555555555</v>
+        <v>43723.540555555555</v>
       </c>
       <c r="C40" s="4">
-        <v>43725.54115740741</v>
+        <v>43723.54115740741</v>
       </c>
       <c r="D40" s="4">
-        <v>43725.542557870373</v>
+        <v>43723.542557870373</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -2221,13 +2221,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="4">
-        <v>43725.540648148148</v>
+        <v>43723.540648148148</v>
       </c>
       <c r="C41" s="4">
-        <v>43725.541284722225</v>
+        <v>43723.541284722225</v>
       </c>
       <c r="D41" s="4">
-        <v>43725.54347222222</v>
+        <v>43723.54347222222</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -2236,13 +2236,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="4">
-        <v>43725.541226851848</v>
+        <v>43723.541226851848</v>
       </c>
       <c r="C42" s="4">
-        <v>43725.542013888888</v>
+        <v>43723.542013888888</v>
       </c>
       <c r="D42" s="4">
-        <v>43725.545092592591</v>
+        <v>43723.545092592591</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -2251,13 +2251,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="4">
-        <v>43725.547858796293</v>
+        <v>43723.547858796293</v>
       </c>
       <c r="C43" s="4">
-        <v>43725.548333333332</v>
+        <v>43723.548333333332</v>
       </c>
       <c r="D43" s="4">
-        <v>43725.550115740742</v>
+        <v>43723.550115740742</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -2266,13 +2266,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="4">
-        <v>43725.548738425925</v>
+        <v>43723.548738425925</v>
       </c>
       <c r="C44" s="4">
-        <v>43725.548993055556</v>
+        <v>43723.548993055556</v>
       </c>
       <c r="D44" s="4">
-        <v>43725.551562499997</v>
+        <v>43723.551562499997</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -2281,13 +2281,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="4">
-        <v>43725.549108796295</v>
+        <v>43723.549108796295</v>
       </c>
       <c r="C45" s="4">
-        <v>43725.550208333334</v>
+        <v>43723.550208333334</v>
       </c>
       <c r="D45" s="4">
-        <v>43725.553136574075</v>
+        <v>43723.553136574075</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -2296,13 +2296,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="4">
-        <v>43725.549884259257</v>
+        <v>43723.549884259257</v>
       </c>
       <c r="C46" s="4">
-        <v>43725.551655092589</v>
+        <v>43723.551655092589</v>
       </c>
       <c r="D46" s="4">
-        <v>43725.55265046296</v>
+        <v>43723.55265046296</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -2311,13 +2311,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>43725.55023148148</v>
+        <v>43723.55023148148</v>
       </c>
       <c r="C47" s="4">
-        <v>43725.551689814813</v>
+        <v>43723.551689814813</v>
       </c>
       <c r="D47" s="4">
-        <v>43725.553564814814</v>
+        <v>43723.553564814814</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -2326,13 +2326,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>43725.550902777781</v>
+        <v>43723.550902777781</v>
       </c>
       <c r="C48" s="4">
-        <v>43725.551736111112</v>
+        <v>43723.551736111112</v>
       </c>
       <c r="D48" s="4">
-        <v>43725.554629629631</v>
+        <v>43723.554629629631</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -2341,13 +2341,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>43725.55091435185</v>
+        <v>43723.55091435185</v>
       </c>
       <c r="C49" s="4">
-        <v>43725.552395833336</v>
+        <v>43723.552395833336</v>
       </c>
       <c r="D49" s="4">
-        <v>43725.559652777774</v>
+        <v>43723.559652777774</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -2356,13 +2356,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>43725.551400462966</v>
+        <v>43723.551400462966</v>
       </c>
       <c r="C50" s="4">
-        <v>43725.552615740744</v>
+        <v>43723.552615740744</v>
       </c>
       <c r="D50" s="4">
-        <v>43725.555335648147</v>
+        <v>43723.555335648147</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -2371,13 +2371,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>43725.551608796297</v>
+        <v>43723.551608796297</v>
       </c>
       <c r="C51" s="4">
-        <v>43725.55327546296</v>
+        <v>43723.55327546296</v>
       </c>
       <c r="D51" s="4">
-        <v>43725.557013888887</v>
+        <v>43723.557013888887</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -2386,13 +2386,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <v>43725.552476851852</v>
+        <v>43723.552476851852</v>
       </c>
       <c r="C52" s="4">
-        <v>43725.553946759261</v>
+        <v>43723.553946759261</v>
       </c>
       <c r="D52" s="4">
-        <v>43725.558958333335</v>
+        <v>43723.558958333335</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -2401,13 +2401,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="4">
-        <v>43725.552476851852</v>
+        <v>43723.552476851852</v>
       </c>
       <c r="C53" s="4">
-        <v>43725.555</v>
+        <v>43723.555</v>
       </c>
       <c r="D53" s="4">
-        <v>43725.558993055558</v>
+        <v>43723.558993055558</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -2416,13 +2416,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>43725.553171296298</v>
+        <v>43723.553171296298</v>
       </c>
       <c r="C54" s="4">
-        <v>43725.555138888885</v>
+        <v>43723.555138888885</v>
       </c>
       <c r="D54" s="4">
-        <v>43725.559606481482</v>
+        <v>43723.559606481482</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -2431,13 +2431,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="4">
-        <v>43725.554039351853</v>
+        <v>43723.554039351853</v>
       </c>
       <c r="C55" s="4">
-        <v>43725.556608796294</v>
+        <v>43723.556608796294</v>
       </c>
       <c r="D55" s="4">
-        <v>43725.561574074076</v>
+        <v>43723.561574074076</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -2446,13 +2446,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="4">
-        <v>43725.554756944446</v>
+        <v>43723.554756944446</v>
       </c>
       <c r="C56" s="4">
-        <v>43725.557638888888</v>
+        <v>43723.557638888888</v>
       </c>
       <c r="D56" s="4">
-        <v>43725.561331018522</v>
+        <v>43723.561331018522</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -2461,13 +2461,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="4">
-        <v>43725.55574074074</v>
+        <v>43723.55574074074</v>
       </c>
       <c r="C57" s="4">
-        <v>43725.558796296296</v>
+        <v>43723.558796296296</v>
       </c>
       <c r="D57" s="4">
-        <v>43725.5621875</v>
+        <v>43723.5621875</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -2476,13 +2476,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="4">
-        <v>43725.556076388886</v>
+        <v>43723.556076388886</v>
       </c>
       <c r="C58" s="4">
-        <v>43725.559374999997</v>
+        <v>43723.559374999997</v>
       </c>
       <c r="D58" s="2">
-        <v>43725.561805555553</v>
+        <v>43723.561805555553</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -2491,13 +2491,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="4">
-        <v>43725.557997685188</v>
+        <v>43723.557997685188</v>
       </c>
       <c r="C59" s="4">
-        <v>43725.559537037036</v>
+        <v>43723.559537037036</v>
       </c>
       <c r="D59" s="2">
-        <v>43725.562592592592</v>
+        <v>43723.562592592592</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -2506,13 +2506,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="4">
-        <v>43725.559120370373</v>
+        <v>43723.559120370373</v>
       </c>
       <c r="C60" s="4">
-        <v>43725.56046296296</v>
+        <v>43723.56046296296</v>
       </c>
       <c r="D60" s="2">
-        <v>43725.563842592594</v>
+        <v>43723.563842592594</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -2521,13 +2521,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="4">
-        <v>43725.561631944445</v>
+        <v>43723.561631944445</v>
       </c>
       <c r="C61" s="4">
-        <v>43725.561631944445</v>
+        <v>43723.561631944445</v>
       </c>
       <c r="D61" s="2">
-        <v>43725.564375000002</v>
+        <v>43723.564375000002</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -2536,13 +2536,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="4">
-        <v>43725.562071759261</v>
+        <v>43723.562071759261</v>
       </c>
       <c r="C62" s="4">
-        <v>43725.562395833331</v>
+        <v>43723.562395833331</v>
       </c>
       <c r="D62" s="2">
-        <v>43725.565671296295</v>
+        <v>43723.565671296295</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -2551,13 +2551,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="4">
-        <v>43725.562939814816</v>
+        <v>43723.562939814816</v>
       </c>
       <c r="C63" s="4">
-        <v>43725.562939814816</v>
+        <v>43723.562939814816</v>
       </c>
       <c r="D63" s="2">
-        <v>43725.566111111111</v>
+        <v>43723.566111111111</v>
       </c>
       <c r="E63" s="1"/>
     </row>
